--- a/docs/table-of-results.xlsx
+++ b/docs/table-of-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/teaching/ch510_computing/2020/scientific-computing/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E051382E-AED2-124F-B6B2-4819612E1634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91A28FF-7DE1-F943-8C3B-7728153F38FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="460" windowWidth="23540" windowHeight="17540" xr2:uid="{37CF06B3-5C72-9741-BBD6-42CBF2B88AE8}"/>
   </bookViews>
@@ -613,7 +613,7 @@
   <dimension ref="D9:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -681,9 +681,6 @@
       </c>
     </row>
     <row r="17" spans="4:9">
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
       <c r="I17" t="s">
         <v>13</v>
       </c>
@@ -731,8 +728,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="4:9">
-      <c r="D27" t="s">
+    <row r="26" spans="4:9">
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9">
+      <c r="D28" t="s">
         <v>49</v>
       </c>
     </row>
